--- a/c/colors.xlsx
+++ b/c/colors.xlsx
@@ -2476,6 +2476,9 @@
     <xf numFmtId="0" fontId="1" fillId="249" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2483,9 +2486,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2789,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,22 +2800,22 @@
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="252" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="253" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="254"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="255"/>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="253"/>
-      <c r="G1" s="254"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="254"/>
+      <c r="G1" s="255"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="255" t="s">
+      <c r="D2" s="252" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2860,8 +2860,12 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f>CONCATENATE("[",D3,"] = { .r = ",E3, ", .g = ",F3,", .b = ",G3, ", .a = 255 },")</f>
+        <v>[0] = { .r = 0, .g = 0, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2883,8 +2887,12 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I67" si="0">CONCATENATE("[",D4,"] = { .r = ",E4, ", .g = ",F4,", .b = ",G4, ", .a = 255 },")</f>
+        <v>[1] = { .r = 255, .g = 0, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2906,8 +2914,12 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>[2] = { .r = 255, .g = 255, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2929,8 +2941,12 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>[3] = { .r = 0, .g = 255, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2952,8 +2968,12 @@
       <c r="G7" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>[4] = { .r = 0, .g = 255, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2975,8 +2995,12 @@
       <c r="G8" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>[5] = { .r = 0, .g = 0, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2998,8 +3022,12 @@
       <c r="G9" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>[6] = { .r = 255, .g = 0, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3021,8 +3049,12 @@
       <c r="G10" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>[7] = { .r = 255, .g = 255, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41</v>
       </c>
@@ -3044,8 +3076,12 @@
       <c r="G11" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>[8] = { .r = 65, .g = 65, .b = 65, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>80</v>
       </c>
@@ -3067,8 +3103,12 @@
       <c r="G12" s="3">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>[9] = { .r = 128, .g = 128, .b = 128, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -3090,8 +3130,12 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>[10] = { .r = 255, .g = 0, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -3113,8 +3157,12 @@
       <c r="G14" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>[11] = { .r = 255, .g = 170, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -3136,8 +3184,12 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>[12] = { .r = 189, .g = 0, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -3159,8 +3211,12 @@
       <c r="G16" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>[13] = { .r = 189, .g = 126, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>81</v>
       </c>
@@ -3182,8 +3238,12 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>[14] = { .r = 129, .g = 0, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>81</v>
       </c>
@@ -3205,8 +3265,12 @@
       <c r="G18" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>[15] = { .r = 129, .g = 86, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>68</v>
       </c>
@@ -3228,8 +3292,12 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>[16] = { .r = 104, .g = 0, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>68</v>
       </c>
@@ -3251,8 +3319,12 @@
       <c r="G20" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>[17] = { .r = 104, .g = 69, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -3274,8 +3346,12 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>[18] = { .r = 79, .g = 0, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -3297,8 +3373,12 @@
       <c r="G22" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>[19] = { .r = 79, .g = 53, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -3320,8 +3400,12 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>[20] = { .r = 255, .g = 63, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -3343,8 +3427,12 @@
       <c r="G24" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>[21] = { .r = 255, .g = 191, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -3366,8 +3454,12 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>[22] = { .r = 189, .g = 46, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -3389,8 +3481,12 @@
       <c r="G26" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>[23] = { .r = 189, .g = 141, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>81</v>
       </c>
@@ -3412,8 +3508,12 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>[24] = { .r = 129, .g = 31, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>81</v>
       </c>
@@ -3435,8 +3535,12 @@
       <c r="G28" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>[25] = { .r = 129, .g = 96, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>68</v>
       </c>
@@ -3458,8 +3562,12 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>[26] = { .r = 104, .g = 25, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>68</v>
       </c>
@@ -3481,8 +3589,12 @@
       <c r="G30" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>[27] = { .r = 104, .g = 78, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -3504,8 +3616,12 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>[28] = { .r = 79, .g = 19, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -3527,8 +3643,12 @@
       <c r="G32" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>[29] = { .r = 79, .g = 59, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -3550,8 +3670,12 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>[30] = { .r = 255, .g = 127, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -3573,8 +3697,12 @@
       <c r="G34" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>[31] = { .r = 255, .g = 212, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -3596,8 +3724,12 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>[32] = { .r = 189, .g = 94, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3619,8 +3751,12 @@
       <c r="G36" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>[33] = { .r = 189, .g = 157, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>81</v>
       </c>
@@ -3642,8 +3778,12 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>[34] = { .r = 129, .g = 64, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>81</v>
       </c>
@@ -3665,8 +3805,12 @@
       <c r="G38" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>[35] = { .r = 129, .g = 107, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>68</v>
       </c>
@@ -3688,8 +3832,12 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>[36] = { .r = 104, .g = 52, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>68</v>
       </c>
@@ -3711,8 +3859,12 @@
       <c r="G40" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>[37] = { .r = 104, .g = 86, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
@@ -3734,8 +3886,12 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>[38] = { .r = 79, .g = 39, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -3757,8 +3913,12 @@
       <c r="G42" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>[39] = { .r = 79, .g = 66, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3780,8 +3940,12 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>[40] = { .r = 255, .g = 191, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3803,8 +3967,12 @@
       <c r="G44" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>[41] = { .r = 255, .g = 234, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -3826,8 +3994,12 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>[42] = { .r = 189, .g = 141, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -3849,8 +4021,12 @@
       <c r="G46" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>[43] = { .r = 189, .g = 173, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>81</v>
       </c>
@@ -3872,8 +4048,12 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>[44] = { .r = 129, .g = 96, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>81</v>
       </c>
@@ -3895,8 +4075,12 @@
       <c r="G48" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>[45] = { .r = 129, .g = 118, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>68</v>
       </c>
@@ -3918,8 +4102,12 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>[46] = { .r = 104, .g = 78, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>68</v>
       </c>
@@ -3941,8 +4129,12 @@
       <c r="G50" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>[47] = { .r = 104, .g = 95, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>9</v>
       </c>
@@ -3964,8 +4156,12 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>[48] = { .r = 79, .g = 59, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
@@ -3987,8 +4183,12 @@
       <c r="G52" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>[49] = { .r = 79, .g = 73, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
@@ -4010,8 +4210,12 @@
       <c r="G53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>[50] = { .r = 255, .g = 255, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
@@ -4033,8 +4237,12 @@
       <c r="G54" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>[51] = { .r = 255, .g = 255, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -4056,8 +4264,12 @@
       <c r="G55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>[52] = { .r = 189, .g = 189, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -4079,8 +4291,12 @@
       <c r="G56" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>[53] = { .r = 189, .g = 189, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>81</v>
       </c>
@@ -4102,8 +4318,12 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>[54] = { .r = 129, .g = 129, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>81</v>
       </c>
@@ -4125,8 +4345,12 @@
       <c r="G58" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>[55] = { .r = 129, .g = 129, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>68</v>
       </c>
@@ -4148,8 +4372,12 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>[56] = { .r = 104, .g = 104, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>68</v>
       </c>
@@ -4171,8 +4399,12 @@
       <c r="G60" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>[57] = { .r = 104, .g = 104, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
@@ -4194,8 +4426,12 @@
       <c r="G61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>[58] = { .r = 79, .g = 79, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>9</v>
       </c>
@@ -4217,8 +4453,12 @@
       <c r="G62" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>[59] = { .r = 79, .g = 79, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
@@ -4240,8 +4480,12 @@
       <c r="G63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>[60] = { .r = 191, .g = 255, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
@@ -4263,8 +4507,12 @@
       <c r="G64" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>[61] = { .r = 234, .g = 255, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
@@ -4286,8 +4534,12 @@
       <c r="G65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>[62] = { .r = 141, .g = 189, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>23</v>
       </c>
@@ -4309,8 +4561,12 @@
       <c r="G66" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>[63] = { .r = 173, .g = 189, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>60</v>
       </c>
@@ -4332,8 +4588,12 @@
       <c r="G67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67" t="str">
+        <f t="shared" si="0"/>
+        <v>[64] = { .r = 96, .g = 129, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>76</v>
       </c>
@@ -4355,8 +4615,12 @@
       <c r="G68" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" t="str">
+        <f t="shared" ref="I68:I131" si="1">CONCATENATE("[",D68,"] = { .r = ",E68, ", .g = ",F68,", .b = ",G68, ", .a = 255 },")</f>
+        <v>[65] = { .r = 118, .g = 129, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -4378,8 +4642,12 @@
       <c r="G69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>[66] = { .r = 78, .g = 104, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>24</v>
       </c>
@@ -4401,8 +4669,12 @@
       <c r="G70" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>[67] = { .r = 95, .g = 104, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
@@ -4424,8 +4696,12 @@
       <c r="G71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>[68] = { .r = 59, .g = 79, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>49</v>
       </c>
@@ -4447,8 +4723,12 @@
       <c r="G72" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>[69] = { .r = 73, .g = 79, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -4470,8 +4750,12 @@
       <c r="G73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>[70] = { .r = 127, .g = 255, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>18</v>
       </c>
@@ -4493,8 +4777,12 @@
       <c r="G74" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>[71] = { .r = 212, .g = 255, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>19</v>
       </c>
@@ -4516,8 +4804,12 @@
       <c r="G75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>[72] = { .r = 94, .g = 189, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>20</v>
       </c>
@@ -4539,8 +4831,12 @@
       <c r="G76" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>[73] = { .r = 157, .g = 189, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>40</v>
       </c>
@@ -4562,8 +4858,12 @@
       <c r="G77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>[74] = { .r = 64, .g = 129, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
@@ -4585,8 +4885,12 @@
       <c r="G78" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>[75] = { .r = 107, .g = 129, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>34</v>
       </c>
@@ -4608,8 +4912,12 @@
       <c r="G79" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>[76] = { .r = 52, .g = 104, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>56</v>
       </c>
@@ -4631,8 +4939,12 @@
       <c r="G80" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>[77] = { .r = 86, .g = 104, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>27</v>
       </c>
@@ -4654,8 +4966,12 @@
       <c r="G81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>[78] = { .r = 39, .g = 79, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>42</v>
       </c>
@@ -4677,8 +4993,12 @@
       <c r="G82" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>[79] = { .r = 66, .g = 79, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4700,8 +5020,12 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>[80] = { .r = 63, .g = 255, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
@@ -4723,8 +5047,12 @@
       <c r="G84" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>[81] = { .r = 191, .g = 255, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>12</v>
       </c>
@@ -4746,8 +5074,12 @@
       <c r="G85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>[82] = { .r = 46, .g = 189, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>13</v>
       </c>
@@ -4769,8 +5101,12 @@
       <c r="G86" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>[83] = { .r = 141, .g = 189, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>14</v>
       </c>
@@ -4792,8 +5128,12 @@
       <c r="G87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>[84] = { .r = 31, .g = 129, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>60</v>
       </c>
@@ -4815,8 +5155,12 @@
       <c r="G88" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>[85] = { .r = 96, .g = 129, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>19</v>
       </c>
@@ -4838,8 +5182,12 @@
       <c r="G89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>[86] = { .r = 25, .g = 104, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -4861,8 +5209,12 @@
       <c r="G90" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>[87] = { .r = 78, .g = 104, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>13</v>
       </c>
@@ -4884,8 +5236,12 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>[88] = { .r = 19, .g = 79, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>16</v>
       </c>
@@ -4907,8 +5263,12 @@
       <c r="G92" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>[89] = { .r = 59, .g = 79, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>0</v>
       </c>
@@ -4930,8 +5290,12 @@
       <c r="G93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>[90] = { .r = 0, .g = 255, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
@@ -4953,8 +5317,12 @@
       <c r="G94" s="3">
         <v>170</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>[91] = { .r = 170, .g = 255, .b = 170, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>0</v>
       </c>
@@ -4976,8 +5344,12 @@
       <c r="G95" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>[92] = { .r = 0, .g = 189, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>8</v>
       </c>
@@ -4999,8 +5371,12 @@
       <c r="G96" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>[93] = { .r = 126, .g = 189, .b = 126, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>0</v>
       </c>
@@ -5022,8 +5398,12 @@
       <c r="G97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>[94] = { .r = 0, .g = 129, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>56</v>
       </c>
@@ -5045,8 +5425,12 @@
       <c r="G98" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>[95] = { .r = 86, .g = 129, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>0</v>
       </c>
@@ -5068,8 +5452,12 @@
       <c r="G99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>[96] = { .r = 0, .g = 104, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>45</v>
       </c>
@@ -5091,8 +5479,12 @@
       <c r="G100" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>[97] = { .r = 69, .g = 104, .b = 69, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5506,12 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>[98] = { .r = 0, .g = 79, .b = 0, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>35</v>
       </c>
@@ -5137,8 +5533,12 @@
       <c r="G102" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I102" t="str">
+        <f t="shared" si="1"/>
+        <v>[99] = { .r = 53, .g = 79, .b = 53, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>0</v>
       </c>
@@ -5160,8 +5560,12 @@
       <c r="G103" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I103" t="str">
+        <f t="shared" si="1"/>
+        <v>[100] = { .r = 0, .g = 255, .b = 63, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>6</v>
       </c>
@@ -5183,8 +5587,12 @@
       <c r="G104" s="3">
         <v>191</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I104" t="str">
+        <f t="shared" si="1"/>
+        <v>[101] = { .r = 170, .g = 255, .b = 191, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>0</v>
       </c>
@@ -5206,8 +5614,12 @@
       <c r="G105" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I105" t="str">
+        <f t="shared" si="1"/>
+        <v>[102] = { .r = 0, .g = 189, .b = 46, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>8</v>
       </c>
@@ -5229,8 +5641,12 @@
       <c r="G106" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I106" t="str">
+        <f t="shared" si="1"/>
+        <v>[103] = { .r = 126, .g = 189, .b = 141, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>0</v>
       </c>
@@ -5252,8 +5668,12 @@
       <c r="G107" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I107" t="str">
+        <f t="shared" si="1"/>
+        <v>[104] = { .r = 0, .g = 129, .b = 31, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>56</v>
       </c>
@@ -5275,8 +5695,12 @@
       <c r="G108" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I108" t="str">
+        <f t="shared" si="1"/>
+        <v>[105] = { .r = 86, .g = 129, .b = 96, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>0</v>
       </c>
@@ -5298,8 +5722,12 @@
       <c r="G109" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I109" t="str">
+        <f t="shared" si="1"/>
+        <v>[106] = { .r = 0, .g = 104, .b = 25, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>45</v>
       </c>
@@ -5321,8 +5749,12 @@
       <c r="G110" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I110" t="str">
+        <f t="shared" si="1"/>
+        <v>[107] = { .r = 69, .g = 104, .b = 78, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>0</v>
       </c>
@@ -5344,8 +5776,12 @@
       <c r="G111" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I111" t="str">
+        <f t="shared" si="1"/>
+        <v>[108] = { .r = 0, .g = 79, .b = 19, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>35</v>
       </c>
@@ -5367,8 +5803,12 @@
       <c r="G112" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I112" t="str">
+        <f t="shared" si="1"/>
+        <v>[109] = { .r = 53, .g = 79, .b = 59, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>0</v>
       </c>
@@ -5390,8 +5830,12 @@
       <c r="G113" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I113" t="str">
+        <f t="shared" si="1"/>
+        <v>[110] = { .r = 0, .g = 255, .b = 127, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>6</v>
       </c>
@@ -5413,8 +5857,12 @@
       <c r="G114" s="3">
         <v>212</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I114" t="str">
+        <f t="shared" si="1"/>
+        <v>[111] = { .r = 170, .g = 255, .b = 212, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>0</v>
       </c>
@@ -5436,8 +5884,12 @@
       <c r="G115" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I115" t="str">
+        <f t="shared" si="1"/>
+        <v>[112] = { .r = 0, .g = 189, .b = 94, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>8</v>
       </c>
@@ -5459,8 +5911,12 @@
       <c r="G116" s="3">
         <v>157</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I116" t="str">
+        <f t="shared" si="1"/>
+        <v>[113] = { .r = 126, .g = 189, .b = 157, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>0</v>
       </c>
@@ -5482,8 +5938,12 @@
       <c r="G117" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I117" t="str">
+        <f t="shared" si="1"/>
+        <v>[114] = { .r = 0, .g = 129, .b = 64, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>56</v>
       </c>
@@ -5505,8 +5965,12 @@
       <c r="G118" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I118" t="str">
+        <f t="shared" si="1"/>
+        <v>[115] = { .r = 86, .g = 129, .b = 107, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>0</v>
       </c>
@@ -5528,8 +5992,12 @@
       <c r="G119" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I119" t="str">
+        <f t="shared" si="1"/>
+        <v>[116] = { .r = 0, .g = 104, .b = 52, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>45</v>
       </c>
@@ -5551,8 +6019,12 @@
       <c r="G120" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I120" t="str">
+        <f t="shared" si="1"/>
+        <v>[117] = { .r = 69, .g = 104, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>0</v>
       </c>
@@ -5574,8 +6046,12 @@
       <c r="G121" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I121" t="str">
+        <f t="shared" si="1"/>
+        <v>[118] = { .r = 0, .g = 79, .b = 39, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>35</v>
       </c>
@@ -5597,8 +6073,12 @@
       <c r="G122" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I122" t="str">
+        <f t="shared" si="1"/>
+        <v>[119] = { .r = 53, .g = 79, .b = 66, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>0</v>
       </c>
@@ -5620,8 +6100,12 @@
       <c r="G123" s="3">
         <v>191</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I123" t="str">
+        <f t="shared" si="1"/>
+        <v>[120] = { .r = 0, .g = 255, .b = 191, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>6</v>
       </c>
@@ -5643,8 +6127,12 @@
       <c r="G124" s="3">
         <v>234</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I124" t="str">
+        <f t="shared" si="1"/>
+        <v>[121] = { .r = 170, .g = 255, .b = 234, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>0</v>
       </c>
@@ -5666,8 +6154,12 @@
       <c r="G125" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I125" t="str">
+        <f t="shared" si="1"/>
+        <v>[122] = { .r = 0, .g = 189, .b = 141, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>8</v>
       </c>
@@ -5689,8 +6181,12 @@
       <c r="G126" s="3">
         <v>173</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I126" t="str">
+        <f t="shared" si="1"/>
+        <v>[123] = { .r = 126, .g = 189, .b = 173, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>0</v>
       </c>
@@ -5712,8 +6208,12 @@
       <c r="G127" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I127" t="str">
+        <f t="shared" si="1"/>
+        <v>[124] = { .r = 0, .g = 129, .b = 96, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>56</v>
       </c>
@@ -5735,8 +6235,12 @@
       <c r="G128" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I128" t="str">
+        <f t="shared" si="1"/>
+        <v>[125] = { .r = 86, .g = 129, .b = 118, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>0</v>
       </c>
@@ -5758,8 +6262,12 @@
       <c r="G129" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I129" t="str">
+        <f t="shared" si="1"/>
+        <v>[126] = { .r = 0, .g = 104, .b = 78, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>45</v>
       </c>
@@ -5781,8 +6289,12 @@
       <c r="G130" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I130" t="str">
+        <f t="shared" si="1"/>
+        <v>[127] = { .r = 69, .g = 104, .b = 95, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>0</v>
       </c>
@@ -5804,8 +6316,12 @@
       <c r="G131" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I131" t="str">
+        <f t="shared" si="1"/>
+        <v>[128] = { .r = 0, .g = 79, .b = 59, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>35</v>
       </c>
@@ -5827,8 +6343,12 @@
       <c r="G132" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I132" t="str">
+        <f t="shared" ref="I132:I195" si="2">CONCATENATE("[",D132,"] = { .r = ",E132, ", .g = ",F132,", .b = ",G132, ", .a = 255 },")</f>
+        <v>[129] = { .r = 53, .g = 79, .b = 73, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>0</v>
       </c>
@@ -5850,8 +6370,12 @@
       <c r="G133" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I133" t="str">
+        <f t="shared" si="2"/>
+        <v>[130] = { .r = 0, .g = 255, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>6</v>
       </c>
@@ -5873,8 +6397,12 @@
       <c r="G134" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I134" t="str">
+        <f t="shared" si="2"/>
+        <v>[131] = { .r = 170, .g = 255, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>0</v>
       </c>
@@ -5896,8 +6424,12 @@
       <c r="G135" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I135" t="str">
+        <f t="shared" si="2"/>
+        <v>[132] = { .r = 0, .g = 189, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>8</v>
       </c>
@@ -5919,8 +6451,12 @@
       <c r="G136" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I136" t="str">
+        <f t="shared" si="2"/>
+        <v>[133] = { .r = 126, .g = 189, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>0</v>
       </c>
@@ -5942,8 +6478,12 @@
       <c r="G137" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I137" t="str">
+        <f t="shared" si="2"/>
+        <v>[134] = { .r = 0, .g = 129, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>56</v>
       </c>
@@ -5965,8 +6505,12 @@
       <c r="G138" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I138" t="str">
+        <f t="shared" si="2"/>
+        <v>[135] = { .r = 86, .g = 129, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>0</v>
       </c>
@@ -5988,8 +6532,12 @@
       <c r="G139" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I139" t="str">
+        <f t="shared" si="2"/>
+        <v>[136] = { .r = 0, .g = 104, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>45</v>
       </c>
@@ -6011,8 +6559,12 @@
       <c r="G140" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I140" t="str">
+        <f t="shared" si="2"/>
+        <v>[137] = { .r = 69, .g = 104, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>0</v>
       </c>
@@ -6034,8 +6586,12 @@
       <c r="G141" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I141" t="str">
+        <f t="shared" si="2"/>
+        <v>[138] = { .r = 0, .g = 79, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>35</v>
       </c>
@@ -6057,8 +6613,12 @@
       <c r="G142" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I142" t="str">
+        <f t="shared" si="2"/>
+        <v>[139] = { .r = 53, .g = 79, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>0</v>
       </c>
@@ -6080,8 +6640,12 @@
       <c r="G143" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I143" t="str">
+        <f t="shared" si="2"/>
+        <v>[140] = { .r = 0, .g = 191, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>6</v>
       </c>
@@ -6103,8 +6667,12 @@
       <c r="G144" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I144" t="str">
+        <f t="shared" si="2"/>
+        <v>[141] = { .r = 170, .g = 234, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>0</v>
       </c>
@@ -6126,8 +6694,12 @@
       <c r="G145" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I145" t="str">
+        <f t="shared" si="2"/>
+        <v>[142] = { .r = 0, .g = 141, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>8</v>
       </c>
@@ -6149,8 +6721,12 @@
       <c r="G146" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I146" t="str">
+        <f t="shared" si="2"/>
+        <v>[143] = { .r = 126, .g = 173, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>0</v>
       </c>
@@ -6172,8 +6748,12 @@
       <c r="G147" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I147" t="str">
+        <f t="shared" si="2"/>
+        <v>[144] = { .r = 0, .g = 96, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>56</v>
       </c>
@@ -6195,8 +6775,12 @@
       <c r="G148" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I148" t="str">
+        <f t="shared" si="2"/>
+        <v>[145] = { .r = 86, .g = 118, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>0</v>
       </c>
@@ -6218,8 +6802,12 @@
       <c r="G149" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I149" t="str">
+        <f t="shared" si="2"/>
+        <v>[146] = { .r = 0, .g = 78, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>45</v>
       </c>
@@ -6241,8 +6829,12 @@
       <c r="G150" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I150" t="str">
+        <f t="shared" si="2"/>
+        <v>[147] = { .r = 69, .g = 95, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>0</v>
       </c>
@@ -6264,8 +6856,12 @@
       <c r="G151" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I151" t="str">
+        <f t="shared" si="2"/>
+        <v>[148] = { .r = 0, .g = 59, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>35</v>
       </c>
@@ -6287,8 +6883,12 @@
       <c r="G152" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I152" t="str">
+        <f t="shared" si="2"/>
+        <v>[149] = { .r = 53, .g = 73, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>0</v>
       </c>
@@ -6310,8 +6910,12 @@
       <c r="G153" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I153" t="str">
+        <f t="shared" si="2"/>
+        <v>[150] = { .r = 0, .g = 127, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>6</v>
       </c>
@@ -6333,8 +6937,12 @@
       <c r="G154" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I154" t="str">
+        <f t="shared" si="2"/>
+        <v>[151] = { .r = 170, .g = 212, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>0</v>
       </c>
@@ -6356,8 +6964,12 @@
       <c r="G155" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I155" t="str">
+        <f t="shared" si="2"/>
+        <v>[152] = { .r = 0, .g = 94, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>8</v>
       </c>
@@ -6379,8 +6991,12 @@
       <c r="G156" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I156" t="str">
+        <f t="shared" si="2"/>
+        <v>[153] = { .r = 126, .g = 157, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>0</v>
       </c>
@@ -6402,8 +7018,12 @@
       <c r="G157" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I157" t="str">
+        <f t="shared" si="2"/>
+        <v>[154] = { .r = 0, .g = 64, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>56</v>
       </c>
@@ -6425,8 +7045,12 @@
       <c r="G158" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I158" t="str">
+        <f t="shared" si="2"/>
+        <v>[155] = { .r = 86, .g = 107, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>0</v>
       </c>
@@ -6448,8 +7072,12 @@
       <c r="G159" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I159" t="str">
+        <f t="shared" si="2"/>
+        <v>[156] = { .r = 0, .g = 52, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>45</v>
       </c>
@@ -6471,8 +7099,12 @@
       <c r="G160" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I160" t="str">
+        <f t="shared" si="2"/>
+        <v>[157] = { .r = 69, .g = 86, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>0</v>
       </c>
@@ -6494,8 +7126,12 @@
       <c r="G161" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I161" t="str">
+        <f t="shared" si="2"/>
+        <v>[158] = { .r = 0, .g = 39, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>35</v>
       </c>
@@ -6517,8 +7153,12 @@
       <c r="G162" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I162" t="str">
+        <f t="shared" si="2"/>
+        <v>[159] = { .r = 53, .g = 66, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>0</v>
       </c>
@@ -6540,8 +7180,12 @@
       <c r="G163" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I163" t="str">
+        <f t="shared" si="2"/>
+        <v>[160] = { .r = 0, .g = 63, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>6</v>
       </c>
@@ -6563,8 +7207,12 @@
       <c r="G164" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I164" t="str">
+        <f t="shared" si="2"/>
+        <v>[161] = { .r = 170, .g = 191, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>0</v>
       </c>
@@ -6586,8 +7234,12 @@
       <c r="G165" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I165" t="str">
+        <f t="shared" si="2"/>
+        <v>[162] = { .r = 0, .g = 46, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>8</v>
       </c>
@@ -6609,8 +7261,12 @@
       <c r="G166" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I166" t="str">
+        <f t="shared" si="2"/>
+        <v>[163] = { .r = 126, .g = 141, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>0</v>
       </c>
@@ -6632,8 +7288,12 @@
       <c r="G167" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I167" t="str">
+        <f t="shared" si="2"/>
+        <v>[164] = { .r = 0, .g = 31, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>56</v>
       </c>
@@ -6655,8 +7315,12 @@
       <c r="G168" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I168" t="str">
+        <f t="shared" si="2"/>
+        <v>[165] = { .r = 86, .g = 96, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>0</v>
       </c>
@@ -6678,8 +7342,12 @@
       <c r="G169" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I169" t="str">
+        <f t="shared" si="2"/>
+        <v>[166] = { .r = 0, .g = 25, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>45</v>
       </c>
@@ -6701,8 +7369,12 @@
       <c r="G170" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I170" t="str">
+        <f t="shared" si="2"/>
+        <v>[167] = { .r = 69, .g = 78, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>0</v>
       </c>
@@ -6724,8 +7396,12 @@
       <c r="G171" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I171" t="str">
+        <f t="shared" si="2"/>
+        <v>[168] = { .r = 0, .g = 19, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>35</v>
       </c>
@@ -6747,8 +7423,12 @@
       <c r="G172" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I172" t="str">
+        <f t="shared" si="2"/>
+        <v>[169] = { .r = 53, .g = 59, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>0</v>
       </c>
@@ -6770,8 +7450,12 @@
       <c r="G173" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I173" t="str">
+        <f t="shared" si="2"/>
+        <v>[170] = { .r = 0, .g = 0, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>6</v>
       </c>
@@ -6793,8 +7477,12 @@
       <c r="G174" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I174" t="str">
+        <f t="shared" si="2"/>
+        <v>[171] = { .r = 170, .g = 170, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>0</v>
       </c>
@@ -6816,8 +7504,12 @@
       <c r="G175" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I175" t="str">
+        <f t="shared" si="2"/>
+        <v>[172] = { .r = 0, .g = 0, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>8</v>
       </c>
@@ -6839,8 +7531,12 @@
       <c r="G176" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I176" t="str">
+        <f t="shared" si="2"/>
+        <v>[173] = { .r = 126, .g = 126, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>0</v>
       </c>
@@ -6862,8 +7558,12 @@
       <c r="G177" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I177" t="str">
+        <f t="shared" si="2"/>
+        <v>[174] = { .r = 0, .g = 0, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>56</v>
       </c>
@@ -6885,8 +7585,12 @@
       <c r="G178" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I178" t="str">
+        <f t="shared" si="2"/>
+        <v>[175] = { .r = 86, .g = 86, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>0</v>
       </c>
@@ -6908,8 +7612,12 @@
       <c r="G179" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I179" t="str">
+        <f t="shared" si="2"/>
+        <v>[176] = { .r = 0, .g = 0, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>45</v>
       </c>
@@ -6931,8 +7639,12 @@
       <c r="G180" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I180" t="str">
+        <f t="shared" si="2"/>
+        <v>[177] = { .r = 69, .g = 69, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>0</v>
       </c>
@@ -6954,8 +7666,12 @@
       <c r="G181" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I181" t="str">
+        <f t="shared" si="2"/>
+        <v>[178] = { .r = 0, .g = 0, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>35</v>
       </c>
@@ -6977,8 +7693,12 @@
       <c r="G182" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I182" t="str">
+        <f t="shared" si="2"/>
+        <v>[179] = { .r = 53, .g = 53, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>10</v>
       </c>
@@ -7000,8 +7720,12 @@
       <c r="G183" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I183" t="str">
+        <f t="shared" si="2"/>
+        <v>[180] = { .r = 63, .g = 0, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>11</v>
       </c>
@@ -7023,8 +7747,12 @@
       <c r="G184" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I184" t="str">
+        <f t="shared" si="2"/>
+        <v>[181] = { .r = 191, .g = 170, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>12</v>
       </c>
@@ -7046,8 +7774,12 @@
       <c r="G185" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I185" t="str">
+        <f t="shared" si="2"/>
+        <v>[182] = { .r = 46, .g = 0, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>13</v>
       </c>
@@ -7069,8 +7801,12 @@
       <c r="G186" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I186" t="str">
+        <f t="shared" si="2"/>
+        <v>[183] = { .r = 141, .g = 126, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>14</v>
       </c>
@@ -7092,8 +7828,12 @@
       <c r="G187" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I187" t="str">
+        <f t="shared" si="2"/>
+        <v>[184] = { .r = 31, .g = 0, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>60</v>
       </c>
@@ -7115,8 +7855,12 @@
       <c r="G188" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I188" t="str">
+        <f t="shared" si="2"/>
+        <v>[185] = { .r = 96, .g = 86, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>19</v>
       </c>
@@ -7138,8 +7882,12 @@
       <c r="G189" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I189" t="str">
+        <f t="shared" si="2"/>
+        <v>[186] = { .r = 25, .g = 0, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>15</v>
       </c>
@@ -7161,8 +7909,12 @@
       <c r="G190" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I190" t="str">
+        <f t="shared" si="2"/>
+        <v>[187] = { .r = 78, .g = 69, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>13</v>
       </c>
@@ -7184,8 +7936,12 @@
       <c r="G191" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I191" t="str">
+        <f t="shared" si="2"/>
+        <v>[188] = { .r = 19, .g = 0, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>16</v>
       </c>
@@ -7207,8 +7963,12 @@
       <c r="G192" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I192" t="str">
+        <f t="shared" si="2"/>
+        <v>[189] = { .r = 59, .g = 53, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>17</v>
       </c>
@@ -7230,8 +7990,12 @@
       <c r="G193" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I193" t="str">
+        <f t="shared" si="2"/>
+        <v>[190] = { .r = 127, .g = 0, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>18</v>
       </c>
@@ -7253,8 +8017,12 @@
       <c r="G194" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I194" t="str">
+        <f t="shared" si="2"/>
+        <v>[191] = { .r = 212, .g = 170, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>19</v>
       </c>
@@ -7276,8 +8044,12 @@
       <c r="G195" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I195" t="str">
+        <f t="shared" si="2"/>
+        <v>[192] = { .r = 94, .g = 0, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>20</v>
       </c>
@@ -7299,8 +8071,12 @@
       <c r="G196" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I196" t="str">
+        <f t="shared" ref="I196:I258" si="3">CONCATENATE("[",D196,"] = { .r = ",E196, ", .g = ",F196,", .b = ",G196, ", .a = 255 },")</f>
+        <v>[193] = { .r = 157, .g = 126, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>40</v>
       </c>
@@ -7322,8 +8098,12 @@
       <c r="G197" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I197" t="str">
+        <f t="shared" si="3"/>
+        <v>[194] = { .r = 64, .g = 0, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>21</v>
       </c>
@@ -7345,8 +8125,12 @@
       <c r="G198" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I198" t="str">
+        <f t="shared" si="3"/>
+        <v>[195] = { .r = 107, .g = 86, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>34</v>
       </c>
@@ -7368,8 +8152,12 @@
       <c r="G199" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I199" t="str">
+        <f t="shared" si="3"/>
+        <v>[196] = { .r = 52, .g = 0, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>56</v>
       </c>
@@ -7391,8 +8179,12 @@
       <c r="G200" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I200" t="str">
+        <f t="shared" si="3"/>
+        <v>[197] = { .r = 86, .g = 69, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>27</v>
       </c>
@@ -7414,8 +8206,12 @@
       <c r="G201" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I201" t="str">
+        <f t="shared" si="3"/>
+        <v>[198] = { .r = 39, .g = 0, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>42</v>
       </c>
@@ -7437,8 +8233,12 @@
       <c r="G202" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I202" t="str">
+        <f t="shared" si="3"/>
+        <v>[199] = { .r = 66, .g = 53, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>11</v>
       </c>
@@ -7460,8 +8260,12 @@
       <c r="G203" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I203" t="str">
+        <f t="shared" si="3"/>
+        <v>[200] = { .r = 191, .g = 0, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>22</v>
       </c>
@@ -7483,8 +8287,12 @@
       <c r="G204" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I204" t="str">
+        <f t="shared" si="3"/>
+        <v>[201] = { .r = 234, .g = 170, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>13</v>
       </c>
@@ -7506,8 +8314,12 @@
       <c r="G205" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I205" t="str">
+        <f t="shared" si="3"/>
+        <v>[202] = { .r = 141, .g = 0, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>23</v>
       </c>
@@ -7529,8 +8341,12 @@
       <c r="G206" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I206" t="str">
+        <f t="shared" si="3"/>
+        <v>[203] = { .r = 173, .g = 126, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>60</v>
       </c>
@@ -7552,8 +8368,12 @@
       <c r="G207" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I207" t="str">
+        <f t="shared" si="3"/>
+        <v>[204] = { .r = 96, .g = 0, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>76</v>
       </c>
@@ -7575,8 +8395,12 @@
       <c r="G208" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I208" t="str">
+        <f t="shared" si="3"/>
+        <v>[205] = { .r = 118, .g = 86, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>15</v>
       </c>
@@ -7598,8 +8422,12 @@
       <c r="G209" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I209" t="str">
+        <f t="shared" si="3"/>
+        <v>[206] = { .r = 78, .g = 0, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>24</v>
       </c>
@@ -7621,8 +8449,12 @@
       <c r="G210" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I210" t="str">
+        <f t="shared" si="3"/>
+        <v>[207] = { .r = 95, .g = 69, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>16</v>
       </c>
@@ -7644,8 +8476,12 @@
       <c r="G211" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I211" t="str">
+        <f t="shared" si="3"/>
+        <v>[208] = { .r = 59, .g = 0, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>49</v>
       </c>
@@ -7667,8 +8503,12 @@
       <c r="G212" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I212" t="str">
+        <f t="shared" si="3"/>
+        <v>[209] = { .r = 73, .g = 53, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
@@ -7690,8 +8530,12 @@
       <c r="G213" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I213" t="str">
+        <f t="shared" si="3"/>
+        <v>[210] = { .r = 255, .g = 0, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>5</v>
       </c>
@@ -7713,8 +8557,12 @@
       <c r="G214" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I214" t="str">
+        <f t="shared" si="3"/>
+        <v>[211] = { .r = 255, .g = 170, .b = 255, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>7</v>
       </c>
@@ -7736,8 +8584,12 @@
       <c r="G215" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I215" t="str">
+        <f t="shared" si="3"/>
+        <v>[212] = { .r = 189, .g = 0, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>7</v>
       </c>
@@ -7759,8 +8611,12 @@
       <c r="G216" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I216" t="str">
+        <f t="shared" si="3"/>
+        <v>[213] = { .r = 189, .g = 126, .b = 189, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>81</v>
       </c>
@@ -7782,8 +8638,12 @@
       <c r="G217" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I217" t="str">
+        <f t="shared" si="3"/>
+        <v>[214] = { .r = 129, .g = 0, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>81</v>
       </c>
@@ -7805,8 +8665,12 @@
       <c r="G218" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I218" t="str">
+        <f t="shared" si="3"/>
+        <v>[215] = { .r = 129, .g = 86, .b = 129, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>68</v>
       </c>
@@ -7828,8 +8692,12 @@
       <c r="G219" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I219" t="str">
+        <f t="shared" si="3"/>
+        <v>[216] = { .r = 104, .g = 0, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>68</v>
       </c>
@@ -7851,8 +8719,12 @@
       <c r="G220" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I220" t="str">
+        <f t="shared" si="3"/>
+        <v>[217] = { .r = 104, .g = 69, .b = 104, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>9</v>
       </c>
@@ -7874,8 +8746,12 @@
       <c r="G221" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I221" t="str">
+        <f t="shared" si="3"/>
+        <v>[218] = { .r = 79, .g = 0, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>9</v>
       </c>
@@ -7897,8 +8773,12 @@
       <c r="G222" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I222" t="str">
+        <f t="shared" si="3"/>
+        <v>[219] = { .r = 79, .g = 53, .b = 79, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>5</v>
       </c>
@@ -7920,8 +8800,12 @@
       <c r="G223" s="3">
         <v>191</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I223" t="str">
+        <f t="shared" si="3"/>
+        <v>[220] = { .r = 255, .g = 0, .b = 191, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
@@ -7943,8 +8827,12 @@
       <c r="G224" s="3">
         <v>234</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I224" t="str">
+        <f t="shared" si="3"/>
+        <v>[221] = { .r = 255, .g = 170, .b = 234, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>7</v>
       </c>
@@ -7966,8 +8854,12 @@
       <c r="G225" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I225" t="str">
+        <f t="shared" si="3"/>
+        <v>[222] = { .r = 189, .g = 0, .b = 141, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>7</v>
       </c>
@@ -7989,8 +8881,12 @@
       <c r="G226" s="3">
         <v>173</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I226" t="str">
+        <f t="shared" si="3"/>
+        <v>[223] = { .r = 189, .g = 126, .b = 173, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>81</v>
       </c>
@@ -8012,8 +8908,12 @@
       <c r="G227" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I227" t="str">
+        <f t="shared" si="3"/>
+        <v>[224] = { .r = 129, .g = 0, .b = 96, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>81</v>
       </c>
@@ -8035,8 +8935,12 @@
       <c r="G228" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I228" t="str">
+        <f t="shared" si="3"/>
+        <v>[225] = { .r = 129, .g = 86, .b = 118, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>68</v>
       </c>
@@ -8058,8 +8962,12 @@
       <c r="G229" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I229" t="str">
+        <f t="shared" si="3"/>
+        <v>[226] = { .r = 104, .g = 0, .b = 78, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>68</v>
       </c>
@@ -8081,8 +8989,12 @@
       <c r="G230" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I230" t="str">
+        <f t="shared" si="3"/>
+        <v>[227] = { .r = 104, .g = 69, .b = 95, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>9</v>
       </c>
@@ -8104,8 +9016,12 @@
       <c r="G231" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I231" t="str">
+        <f t="shared" si="3"/>
+        <v>[228] = { .r = 79, .g = 0, .b = 59, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>9</v>
       </c>
@@ -8127,8 +9043,12 @@
       <c r="G232" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I232" t="str">
+        <f t="shared" si="3"/>
+        <v>[229] = { .r = 79, .g = 53, .b = 73, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>5</v>
       </c>
@@ -8150,8 +9070,12 @@
       <c r="G233" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I233" t="str">
+        <f t="shared" si="3"/>
+        <v>[230] = { .r = 255, .g = 0, .b = 127, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>5</v>
       </c>
@@ -8173,8 +9097,12 @@
       <c r="G234" s="3">
         <v>212</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I234" t="str">
+        <f t="shared" si="3"/>
+        <v>[231] = { .r = 255, .g = 170, .b = 212, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>7</v>
       </c>
@@ -8196,8 +9124,12 @@
       <c r="G235" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I235" t="str">
+        <f t="shared" si="3"/>
+        <v>[232] = { .r = 189, .g = 0, .b = 94, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>7</v>
       </c>
@@ -8219,8 +9151,12 @@
       <c r="G236" s="3">
         <v>157</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I236" t="str">
+        <f t="shared" si="3"/>
+        <v>[233] = { .r = 189, .g = 126, .b = 157, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>81</v>
       </c>
@@ -8242,8 +9178,12 @@
       <c r="G237" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I237" t="str">
+        <f t="shared" si="3"/>
+        <v>[234] = { .r = 129, .g = 0, .b = 64, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>81</v>
       </c>
@@ -8265,8 +9205,12 @@
       <c r="G238" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I238" t="str">
+        <f t="shared" si="3"/>
+        <v>[235] = { .r = 129, .g = 86, .b = 107, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>68</v>
       </c>
@@ -8288,8 +9232,12 @@
       <c r="G239" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I239" t="str">
+        <f t="shared" si="3"/>
+        <v>[236] = { .r = 104, .g = 0, .b = 52, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>68</v>
       </c>
@@ -8311,8 +9259,12 @@
       <c r="G240" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I240" t="str">
+        <f t="shared" si="3"/>
+        <v>[237] = { .r = 104, .g = 69, .b = 86, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>9</v>
       </c>
@@ -8334,8 +9286,12 @@
       <c r="G241" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I241" t="str">
+        <f t="shared" si="3"/>
+        <v>[238] = { .r = 79, .g = 0, .b = 39, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>9</v>
       </c>
@@ -8357,8 +9313,12 @@
       <c r="G242" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I242" t="str">
+        <f t="shared" si="3"/>
+        <v>[239] = { .r = 79, .g = 53, .b = 66, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>5</v>
       </c>
@@ -8380,8 +9340,12 @@
       <c r="G243" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I243" t="str">
+        <f t="shared" si="3"/>
+        <v>[240] = { .r = 255, .g = 0, .b = 63, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>5</v>
       </c>
@@ -8403,8 +9367,12 @@
       <c r="G244" s="3">
         <v>191</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I244" t="str">
+        <f t="shared" si="3"/>
+        <v>[241] = { .r = 255, .g = 170, .b = 191, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>7</v>
       </c>
@@ -8426,8 +9394,12 @@
       <c r="G245" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I245" t="str">
+        <f t="shared" si="3"/>
+        <v>[242] = { .r = 189, .g = 0, .b = 46, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>7</v>
       </c>
@@ -8449,8 +9421,12 @@
       <c r="G246" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I246" t="str">
+        <f t="shared" si="3"/>
+        <v>[243] = { .r = 189, .g = 126, .b = 141, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>81</v>
       </c>
@@ -8472,8 +9448,12 @@
       <c r="G247" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I247" t="str">
+        <f t="shared" si="3"/>
+        <v>[244] = { .r = 129, .g = 0, .b = 31, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>81</v>
       </c>
@@ -8495,8 +9475,12 @@
       <c r="G248" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I248" t="str">
+        <f t="shared" si="3"/>
+        <v>[245] = { .r = 129, .g = 86, .b = 96, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>68</v>
       </c>
@@ -8518,8 +9502,12 @@
       <c r="G249" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I249" t="str">
+        <f t="shared" si="3"/>
+        <v>[246] = { .r = 104, .g = 0, .b = 25, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>68</v>
       </c>
@@ -8541,8 +9529,12 @@
       <c r="G250" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I250" t="str">
+        <f t="shared" si="3"/>
+        <v>[247] = { .r = 104, .g = 69, .b = 78, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>9</v>
       </c>
@@ -8564,8 +9556,12 @@
       <c r="G251" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I251" t="str">
+        <f t="shared" si="3"/>
+        <v>[248] = { .r = 79, .g = 0, .b = 19, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>9</v>
       </c>
@@ -8587,8 +9583,12 @@
       <c r="G252" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I252" t="str">
+        <f t="shared" si="3"/>
+        <v>[249] = { .r = 79, .g = 53, .b = 59, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>33</v>
       </c>
@@ -8610,8 +9610,12 @@
       <c r="G253" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I253" t="str">
+        <f t="shared" si="3"/>
+        <v>[250] = { .r = 51, .g = 51, .b = 51, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>50</v>
       </c>
@@ -8633,8 +9637,12 @@
       <c r="G254" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I254" t="str">
+        <f t="shared" si="3"/>
+        <v>[251] = { .r = 80, .g = 80, .b = 80, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>69</v>
       </c>
@@ -8656,8 +9664,12 @@
       <c r="G255" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I255" t="str">
+        <f t="shared" si="3"/>
+        <v>[252] = { .r = 105, .g = 105, .b = 105, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>82</v>
       </c>
@@ -8679,8 +9691,12 @@
       <c r="G256" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I256" t="str">
+        <f t="shared" si="3"/>
+        <v>[253] = { .r = 130, .g = 130, .b = 130, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>25</v>
       </c>
@@ -8702,8 +9718,12 @@
       <c r="G257" s="3">
         <v>190</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I257" t="str">
+        <f t="shared" si="3"/>
+        <v>[254] = { .r = 190, .g = 190, .b = 190, .a = 255 },</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>5</v>
       </c>
@@ -8724,6 +9744,10 @@
       </c>
       <c r="G258" s="3">
         <v>255</v>
+      </c>
+      <c r="I258" t="str">
+        <f t="shared" si="3"/>
+        <v>[255] = { .r = 255, .g = 255, .b = 255, .a = 255 },</v>
       </c>
     </row>
   </sheetData>
